--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:18:21+00:00</t>
+    <t>2023-02-16T07:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:24:24+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T07:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,76 +102,52 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>77386006</t>
+  </si>
+  <si>
+    <t>Currently pregnant</t>
+  </si>
+  <si>
+    <t>428450006</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>171111007</t>
+  </si>
+  <si>
+    <t>Results not available</t>
+  </si>
+  <si>
+    <t>266721009</t>
+  </si>
+  <si>
+    <t>Absent response to treatment</t>
+  </si>
+  <si>
+    <t>170564007</t>
+  </si>
+  <si>
+    <t>Chronic disease - treatment changed (finding)</t>
+  </si>
+  <si>
+    <t>413712001</t>
+  </si>
+  <si>
+    <t>Breastfeeding (mother) (observable entity)</t>
+  </si>
+  <si>
     <t>315124004</t>
   </si>
   <si>
-    <t>Baseline Viral Load</t>
-  </si>
-  <si>
-    <t>182838006</t>
-  </si>
-  <si>
-    <t>Change regimen</t>
-  </si>
-  <si>
-    <t>73697001</t>
-  </si>
-  <si>
-    <t>Clinical failure</t>
-  </si>
-  <si>
-    <t>304539005</t>
-  </si>
-  <si>
-    <t>Confirmation of treatment failure</t>
-  </si>
-  <si>
-    <t>413712001</t>
-  </si>
-  <si>
-    <t>Currently breastfeeding child</t>
-  </si>
-  <si>
-    <t>77386006</t>
-  </si>
-  <si>
-    <t>Currently pregnant</t>
+    <t>Baseline Viral Load / Routine Viral Load</t>
   </si>
   <si>
     <t>2528003</t>
   </si>
   <si>
     <t>Persistent low-Level viraemia</t>
-  </si>
-  <si>
-    <t>30058000</t>
-  </si>
-  <si>
-    <t>Recency Assay</t>
-  </si>
-  <si>
-    <t>395007004</t>
-  </si>
-  <si>
-    <t>Regimen failure</t>
-  </si>
-  <si>
-    <t>428450006</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>171111007</t>
-  </si>
-  <si>
-    <t>Results not available</t>
-  </si>
-  <si>
-    <t>373113001</t>
-  </si>
-  <si>
-    <t>Routine Viral Load</t>
   </si>
   <si>
     <t>441510007</t>
@@ -489,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -632,47 +608,15 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:15:30+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:04:40+00:00</t>
+    <t>2023-02-16T09:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:05:53+00:00</t>
+    <t>2023-02-16T09:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:13:52+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:29:44+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-16T14:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:44:06+00:00</t>
+    <t>2023-02-16T14:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:57:31+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T04:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:00:13+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:12:18+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A list of reasons associated with the service request for the lab order</t>
+    <t>A list of reasons associated with the service request for the lab order.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T10:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:01:01+00:00</t>
+    <t>2023-02-27T10:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:21:42+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-02T12:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:52:23+00:00</t>
+    <t>2023-03-02T15:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:41:19+00:00</t>
+    <t>2023-03-02T15:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:42:08+00:00</t>
+    <t>2023-03-03T07:02:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:02:32+00:00</t>
+    <t>2023-03-03T07:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:03+00:00</t>
+    <t>2023-03-03T07:18:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:54+00:00</t>
+    <t>2023-03-03T08:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:26:44+00:00</t>
+    <t>2023-03-03T08:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:27:27+00:00</t>
+    <t>2023-03-03T09:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T09:39:05+00:00</t>
+    <t>2023-03-03T10:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:18:33+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T13:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:55:36+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:42:03+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T14:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:55:13+00:00</t>
+    <t>2023-03-03T15:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:04:29+00:00</t>
+    <t>2023-03-03T15:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:12:51+00:00</t>
+    <t>2023-03-03T15:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:20:32+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:05:54+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T08:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:23+00:00</t>
+    <t>2023-03-04T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:06:02+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T14:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:13:00+00:00</t>
+    <t>2023-03-07T14:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:55:06+00:00</t>
+    <t>2023-03-07T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:05+00:00</t>
+    <t>2023-03-07T15:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:58:21+00:00</t>
+    <t>2023-03-07T16:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:00:01+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T16:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:32:06+00:00</t>
+    <t>2023-03-07T16:55:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:55:29+00:00</t>
+    <t>2023-03-07T17:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:20+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T14:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:51:34+00:00</t>
+    <t>2023-03-08T14:57:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:57:07+00:00</t>
+    <t>2023-03-08T15:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:19:16+00:00</t>
+    <t>2023-03-08T15:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:22:38+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-03-10T12:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T12:01:47+00:00</t>
+    <t>2023-04-04T10:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:36+00:00</t>
+    <t>2023-04-04T10:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:52+00:00</t>
+    <t>2023-04-04T10:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:54:41+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
